--- a/db/reynaldos.xlsx
+++ b/db/reynaldos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Destination</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>UTAH 12345</t>
+  </si>
+  <si>
+    <t>Katy, TX 77493</t>
   </si>
 </sst>
 </file>
@@ -138,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -173,10 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +680,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -970,32 +980,48 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="C17" s="2">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="D17" s="2">
-        <v>540</v>
+        <v>1050</v>
       </c>
       <c r="E17" s="2">
-        <v>600</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+        <v>1380</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1675</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2275</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2520</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2790</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3050</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3300</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3420</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>200</v>
@@ -1020,16 +1046,20 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2">
-        <v>750</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="D19" s="2">
+        <v>540</v>
+      </c>
+      <c r="E19" s="2">
+        <v>600</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1041,24 +1071,18 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2000</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>2550</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1068,22 +1092,24 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C21" s="2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D21" s="2">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E21" s="2">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>2550</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1093,16 +1119,20 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="C22" s="2">
-        <v>885</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2400</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1114,20 +1144,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="C23" s="2">
-        <v>675</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1325</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1139,19 +1165,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="C24" s="2">
-        <v>1000</v>
+        <v>675</v>
       </c>
       <c r="D24" s="2">
-        <v>1500</v>
+        <v>1005</v>
       </c>
       <c r="E24" s="2">
-        <v>2000</v>
+        <v>1325</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1164,263 +1190,288 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="C25" s="2">
-        <v>685</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="2">
-        <v>890</v>
+        <v>1500</v>
       </c>
       <c r="E25" s="2">
-        <v>1175</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1425</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1650</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1820</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>2025</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>2550</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C26" s="2">
-        <v>750</v>
+        <v>685</v>
       </c>
       <c r="D26" s="2">
-        <v>1050</v>
+        <v>890</v>
       </c>
       <c r="E26" s="2">
-        <v>1380</v>
+        <v>1175</v>
       </c>
       <c r="F26" s="2">
-        <v>1675</v>
+        <v>1425</v>
       </c>
       <c r="G26" s="2">
-        <v>1980</v>
+        <v>1650</v>
       </c>
       <c r="H26" s="2">
-        <v>2275</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2520</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>2790</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3050</v>
-      </c>
+        <v>2025</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2">
-        <v>3300</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3420</v>
-      </c>
+        <v>2550</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="C27" s="2">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="D27" s="2">
-        <v>885</v>
+        <v>1050</v>
       </c>
       <c r="E27" s="2">
-        <v>975</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+        <v>1380</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1675</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2275</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2520</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2790</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3050</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3300</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3420</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="C28" s="2">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="D28" s="2">
-        <v>625</v>
+        <v>885</v>
       </c>
       <c r="E28" s="2">
-        <v>685</v>
-      </c>
-      <c r="F28" s="2">
-        <v>725</v>
-      </c>
-      <c r="G28" s="2">
-        <v>825</v>
-      </c>
-      <c r="H28" s="2">
-        <v>985</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1090</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1220</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1320</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>395</v>
+      </c>
       <c r="C29" s="2">
-        <v>420</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="D29" s="2">
+        <v>625</v>
+      </c>
       <c r="E29" s="2">
-        <v>590</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="F29" s="2">
+        <v>725</v>
+      </c>
       <c r="G29" s="2">
         <v>825</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="H29" s="2">
+        <v>985</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1090</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1220</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1320</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>450</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2">
-        <v>695</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1025</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <v>1350</v>
+        <v>590</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <v>2100</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2200</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2385</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2650</v>
-      </c>
-      <c r="L30" s="2">
-        <v>2860</v>
-      </c>
+      <c r="G30" s="2">
+        <v>825</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>450</v>
+      </c>
+      <c r="C31" s="2">
+        <v>695</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1025</v>
+      </c>
       <c r="E31" s="2">
-        <v>640</v>
-      </c>
-      <c r="F31" s="2">
-        <v>725</v>
-      </c>
-      <c r="G31" s="2">
-        <v>850</v>
-      </c>
+        <v>1350</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2">
-        <v>985</v>
+        <v>2100</v>
       </c>
       <c r="I31" s="2">
-        <v>1040</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+        <v>2200</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2385</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2650</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2860</v>
+      </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>400</v>
-      </c>
-      <c r="C32" s="2">
-        <v>625</v>
-      </c>
-      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>640</v>
+      </c>
+      <c r="F32" s="2">
+        <v>725</v>
+      </c>
+      <c r="G32" s="2">
         <v>850</v>
       </c>
-      <c r="E32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1125</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1290</v>
-      </c>
       <c r="H32" s="2">
-        <v>1400</v>
+        <v>985</v>
       </c>
       <c r="I32" s="2">
-        <v>1550</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1675</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1800</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>400</v>
+      </c>
+      <c r="C33" s="2">
+        <v>625</v>
+      </c>
+      <c r="D33" s="2">
+        <v>850</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1125</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1290</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1550</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1675</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1800</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>

--- a/db/reynaldos.xlsx
+++ b/db/reynaldos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,15 +800,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="C12" s="2">
-        <v>1290</v>
+        <v>1395</v>
       </c>
       <c r="D12" s="2">
-        <v>1615</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>1750</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2220</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>

--- a/db/reynaldos.xlsx
+++ b/db/reynaldos.xlsx
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C28" s="2">
         <v>625</v>
